--- a/biology/Botanique/Pavonia_fruticosa/Pavonia_fruticosa.xlsx
+++ b/biology/Botanique/Pavonia_fruticosa/Pavonia_fruticosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavonia fruticosa est une espèce de plante à fleur appartenant à la famille des Malvaceae.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavonia fruticosa est un sous-arbrisseau haut de 0,5–1,5 m.
 Ses feuilles sont oblongues-elliptiques à obovales.
 Ses inflorescences sont souvent capituliformes
 Ses 5–7 bractées involucellaires, sont larges de 2–4 mm.
 Les épines apicales sont serrées les unes contre les autres, avec les 2 épines latérales distantes de moins d'1 mm à leur base.
-Son fruit est un méricarpes portant 3 épines barbelées rétrorses[3].
+Son fruit est un méricarpes portant 3 épines barbelées rétrorses.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavonia fruticosa est présent du Costa Rica au  Brésil en passant par le Panama, les Antilles, la Colombie, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavonia fruticosa est présent du Costa Rica au  Brésil en passant par le Panama, les Antilles, la Colombie, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavonia fruticosa est présent dans les forêts sempervirentes de plaine et lisières de forêt, depuis le niveau de la mer jusqu'à 200 m au Venezuela[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavonia fruticosa est présent dans les forêts sempervirentes de plaine et lisières de forêt, depuis le niveau de la mer jusqu'à 200 m au Venezuela.
 </t>
         </is>
       </c>
@@ -609,12 +627,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Aublet rapporte avoir rencontré cette espèce en Guyane, et a publié ce taxon sous le nom synonyme d’Hibiscus guianensis à partir du dessin fait par Plumier, d'après une plante que ce dernier dit avoir communément rencontrée dans les forêts de Saint-Domingue, où elle était appelée Avoine de chien en raison de la ressemblance de ses graines avec celle de la folle avoine[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aublet rapporte avoir rencontré cette espèce en Guyane, et a publié ce taxon sous le nom synonyme d’Hibiscus guianensis à partir du dessin fait par Plumier, d'après une plante que ce dernier dit avoir communément rencontrée dans les forêts de Saint-Domingue, où elle était appelée Avoine de chien en raison de la ressemblance de ses graines avec celle de la folle avoine :
 « HIBISCUS (Guianenſis) foliis ovato-oblongis, denticulis acutis; fructu quadri &amp; quinque-capſulari, capſulis aculeatis, aculcis recurvis.
-Abutilon folio oblongo, ſerrato, fructu minore tricuſpidato. Plum. Mſſ. tab. 13 . tom. 4[1]. »
-— Fusée-Aublet, 1775[4].</t>
+Abutilon folio oblongo, ſerrato, fructu minore tricuſpidato. Plum. Mſſ. tab. 13 . tom. 4. »
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
